--- a/Bachelorarbeit/Results/TR.E/TR.E.11/TP_E_11_1_time_to_fix.xlsx
+++ b/Bachelorarbeit/Results/TR.E/TR.E.11/TP_E_11_1_time_to_fix.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\Pictures\TR.E\TR.E.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\Results\TR.E\TR.E.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F74FBF5-8E21-4167-9715-72FCA96510BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183AA8E-3610-4CFD-91A2-BDDD9E969EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98421BC4-61B3-4B17-92A8-88448CEF58F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{98421BC4-61B3-4B17-92A8-88448CEF58F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,7 +262,7 @@
               <a:rPr lang="de-DE" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Time to implement and publish fixes for security issues in OpenWrt in the year 2020</a:t>
+              <a:t>Benötigte Zeit zur Implementierung und Veröffentlichung von Sicherheitsupdates für OpenWrt im Jahr 2020</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE">
               <a:effectLst/>
@@ -273,12 +273,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="de-DE" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>based on entry date of cve and git commit date</a:t>
+              <a:t>basiert auf dem Veröffentlichungsdatum des CVE Eintrags und dem Datum des git commits</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE">
+            <a:endParaRPr lang="de-DE" sz="1200">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -633,8 +633,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Security Issue</a:t>
+                  <a:t>Veröffetntlichungsdatum</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> des CVE Eintrags</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -753,7 +758,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Days</a:t>
+                  <a:t>Tage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -822,45 +827,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1824,25 +1790,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C31F6D-46C8-4275-81C2-D8E02755167C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +1855,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +1879,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +1903,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +1927,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1985,7 +1951,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2009,12 +1975,12 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2031,7 +1997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2039,19 +2005,19 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <f>E2-D2</f>
+        <f t="shared" ref="D12:D17" si="0">E2-D2</f>
         <v>6</v>
       </c>
       <c r="E12">
-        <f>F2-D2</f>
+        <f t="shared" ref="E12:E17" si="1">F2-D2</f>
         <v>6</v>
       </c>
       <c r="F12">
-        <f>G2-D2</f>
+        <f t="shared" ref="F12:F17" si="2">G2-D2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2059,19 +2025,19 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E13">
-        <f>F3-D3</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F13">
-        <f>G3-D3</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2079,19 +2045,19 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E14">
-        <f>F4-D4</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F14">
-        <f>G4-D4</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2099,19 +2065,19 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>F5-D5</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F15">
-        <f>G5-D5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2119,19 +2085,19 @@
         <v>32</v>
       </c>
       <c r="D16">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E16">
-        <f>F6-D6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F16">
-        <f>G6-D6</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2139,19 +2105,19 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="E17">
-        <f>F7-D7</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F17">
-        <f>G7-D7</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>28</v>
       </c>
@@ -2160,15 +2126,15 @@
         <v>5.166666666666667</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:F18" si="0">AVERAGE(E12:E17)</f>
+        <f t="shared" ref="E18:F18" si="3">AVERAGE(E12:E17)</f>
         <v>6.666666666666667</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2183,11 +2149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59891170-F66E-4748-A558-04D14EB7D024}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
